--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9A965A-8366-4E55-A8BD-91DBA60BB726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C4A7E-62C6-40BA-A843-029576F42911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -25,7 +25,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -1149,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1177,7 +1176,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4301,8 +4299,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Subscription Type">
@@ -4325,7 +4323,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4731,6 +4729,7 @@
                     </a:solidFill>
                     <a:latin typeface="Aptos Narrow"/>
                   </a:rPr>
+                  <a:pPr algn="l"/>
                   <a:t> R$ 600,00 </a:t>
                 </a:fld>
                 <a:endParaRPr lang="pt-BR" sz="3200" b="1" kern="1200">
@@ -4960,6 +4959,7 @@
                 </a:solidFill>
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
+              <a:pPr algn="l"/>
               <a:t> R$ 940,00 </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="3600" b="1" kern="1200">
@@ -5219,7 +5219,15 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr lang="pt-BR" sz="1400" b="1" kern="1200"/>
-                <a:t>TOTAL SUBSCRIPTIONS EA PLAY SEASON PASS</a:t>
+                <a:t>TOTAL SUBSCRIPTIONS XBOX</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1400" b="1" kern="1200" baseline="0"/>
+                <a:t> GAME</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1400" b="1" kern="1200"/>
+                <a:t> PASS</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -24133,7 +24141,7 @@
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -24141,7 +24149,7 @@
       <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="F23" s="15">
@@ -24154,7 +24162,7 @@
       <c r="B24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24">
         <v>600</v>
       </c>
     </row>
@@ -24162,7 +24170,7 @@
       <c r="B25" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25">
         <v>600</v>
       </c>
     </row>
@@ -24238,8 +24246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A1:AJ438"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24251,28 +24259,28 @@
   <sheetData>
     <row r="1" spans="2:36" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="2:36" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:36" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -40395,6 +40403,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -40649,15 +40666,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
   <ds:schemaRefs>
@@ -40670,6 +40678,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40686,12 +40702,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>